--- a/SchedulingData/static6/pso/scheduling1_18.xlsx
+++ b/SchedulingData/static6/pso/scheduling1_18.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>78.12</v>
+        <v>72.66</v>
       </c>
       <c r="E2" t="n">
-        <v>24.848</v>
+        <v>24.904</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>54.76</v>
+        <v>60.54</v>
       </c>
       <c r="E3" t="n">
-        <v>26.204</v>
+        <v>27.096</v>
       </c>
     </row>
     <row r="4">
@@ -504,74 +504,74 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>78.12</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>153.56</v>
+        <v>59.9</v>
       </c>
       <c r="E4" t="n">
-        <v>20.424</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>153.56</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>217.38</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>16.152</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>59.9</v>
       </c>
       <c r="D6" t="n">
-        <v>67.94</v>
+        <v>118.44</v>
       </c>
       <c r="E6" t="n">
-        <v>26.876</v>
+        <v>21.976</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54.76</v>
+        <v>72.66</v>
       </c>
       <c r="D7" t="n">
-        <v>117.56</v>
+        <v>131.24</v>
       </c>
       <c r="E7" t="n">
-        <v>22.544</v>
+        <v>21.656</v>
       </c>
     </row>
     <row r="8">
@@ -580,131 +580,131 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>117.56</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>189.62</v>
+        <v>67.38</v>
       </c>
       <c r="E8" t="n">
-        <v>17.448</v>
+        <v>26.412</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>217.38</v>
+        <v>68.45999999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>273.62</v>
+        <v>117.04</v>
       </c>
       <c r="E9" t="n">
-        <v>13.128</v>
+        <v>23.576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>67.94</v>
+        <v>118.44</v>
       </c>
       <c r="D10" t="n">
-        <v>129.44</v>
+        <v>157.34</v>
       </c>
       <c r="E10" t="n">
-        <v>23.336</v>
+        <v>19.216</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>67.38</v>
       </c>
       <c r="D11" t="n">
-        <v>82.09999999999999</v>
+        <v>109.6</v>
       </c>
       <c r="E11" t="n">
-        <v>24.96</v>
+        <v>23.82</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>273.62</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>350.7</v>
+        <v>64.42</v>
       </c>
       <c r="E12" t="n">
-        <v>9.539999999999999</v>
+        <v>25.728</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>129.44</v>
+        <v>157.34</v>
       </c>
       <c r="D13" t="n">
-        <v>173.34</v>
+        <v>223.94</v>
       </c>
       <c r="E13" t="n">
-        <v>20.576</v>
+        <v>14.176</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>109.6</v>
       </c>
       <c r="D14" t="n">
-        <v>77.09999999999999</v>
+        <v>164.36</v>
       </c>
       <c r="E14" t="n">
-        <v>26.44</v>
+        <v>18.984</v>
       </c>
     </row>
     <row r="15">
@@ -713,245 +713,245 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>77.09999999999999</v>
+        <v>117.04</v>
       </c>
       <c r="D15" t="n">
-        <v>142.84</v>
+        <v>189.1</v>
       </c>
       <c r="E15" t="n">
-        <v>22.956</v>
+        <v>18.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>173.34</v>
+        <v>189.1</v>
       </c>
       <c r="D16" t="n">
-        <v>202.94</v>
+        <v>243.12</v>
       </c>
       <c r="E16" t="n">
-        <v>18.256</v>
+        <v>15.708</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>82.09999999999999</v>
+        <v>164.36</v>
       </c>
       <c r="D17" t="n">
-        <v>153.8</v>
+        <v>216.96</v>
       </c>
       <c r="E17" t="n">
-        <v>20.4</v>
+        <v>15.344</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>153.8</v>
+        <v>243.12</v>
       </c>
       <c r="D18" t="n">
-        <v>222.24</v>
+        <v>314.72</v>
       </c>
       <c r="E18" t="n">
-        <v>16.176</v>
+        <v>11.148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>142.84</v>
+        <v>64.42</v>
       </c>
       <c r="D19" t="n">
-        <v>220.08</v>
+        <v>131.22</v>
       </c>
       <c r="E19" t="n">
-        <v>18.812</v>
+        <v>22.168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>222.24</v>
+        <v>223.94</v>
       </c>
       <c r="D20" t="n">
-        <v>288.24</v>
+        <v>271.34</v>
       </c>
       <c r="E20" t="n">
-        <v>10.716</v>
+        <v>11.056</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>202.94</v>
+        <v>131.24</v>
       </c>
       <c r="D21" t="n">
-        <v>247.06</v>
+        <v>204.98</v>
       </c>
       <c r="E21" t="n">
-        <v>15.484</v>
+        <v>17.392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>350.7</v>
+        <v>60.54</v>
       </c>
       <c r="D22" t="n">
-        <v>389.72</v>
+        <v>121.08</v>
       </c>
       <c r="E22" t="n">
-        <v>6.768</v>
+        <v>22.672</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>389.72</v>
+        <v>216.96</v>
       </c>
       <c r="D23" t="n">
-        <v>444.48</v>
+        <v>284.68</v>
       </c>
       <c r="E23" t="n">
-        <v>1.932</v>
+        <v>10.192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>444.48</v>
+        <v>131.22</v>
       </c>
       <c r="D24" t="n">
-        <v>532.22</v>
+        <v>199.22</v>
       </c>
       <c r="E24" t="n">
-        <v>30</v>
+        <v>18.488</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>247.06</v>
+        <v>271.34</v>
       </c>
       <c r="D25" t="n">
-        <v>290.6</v>
+        <v>318.78</v>
       </c>
       <c r="E25" t="n">
-        <v>12.26</v>
+        <v>7.932</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>290.6</v>
+        <v>121.08</v>
       </c>
       <c r="D26" t="n">
-        <v>358.88</v>
+        <v>215.04</v>
       </c>
       <c r="E26" t="n">
-        <v>9.012</v>
+        <v>18.876</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>220.08</v>
+        <v>284.68</v>
       </c>
       <c r="D27" t="n">
-        <v>271.42</v>
+        <v>340.76</v>
       </c>
       <c r="E27" t="n">
-        <v>14.808</v>
+        <v>7.684</v>
       </c>
     </row>
     <row r="28">
@@ -960,36 +960,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>204.98</v>
       </c>
       <c r="D28" t="n">
-        <v>40</v>
+        <v>249.38</v>
       </c>
       <c r="E28" t="n">
-        <v>26.7</v>
+        <v>15.072</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>40</v>
+        <v>215.04</v>
       </c>
       <c r="D29" t="n">
-        <v>94.3</v>
+        <v>281.08</v>
       </c>
       <c r="E29" t="n">
-        <v>22.9</v>
+        <v>15.392</v>
       </c>
     </row>
     <row r="30">
@@ -998,112 +998,112 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>288.24</v>
+        <v>281.08</v>
       </c>
       <c r="D30" t="n">
-        <v>342.18</v>
+        <v>330.48</v>
       </c>
       <c r="E30" t="n">
-        <v>6.452</v>
+        <v>12.092</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>189.62</v>
+        <v>314.72</v>
       </c>
       <c r="D31" t="n">
-        <v>234.86</v>
+        <v>378.62</v>
       </c>
       <c r="E31" t="n">
-        <v>14.544</v>
+        <v>8.827999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>94.3</v>
+        <v>318.78</v>
       </c>
       <c r="D32" t="n">
-        <v>149.24</v>
+        <v>397.98</v>
       </c>
       <c r="E32" t="n">
-        <v>19.036</v>
+        <v>3.132</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>358.88</v>
+        <v>249.38</v>
       </c>
       <c r="D33" t="n">
-        <v>401</v>
+        <v>317.7</v>
       </c>
       <c r="E33" t="n">
-        <v>6.42</v>
+        <v>10.86</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>271.42</v>
+        <v>317.7</v>
       </c>
       <c r="D34" t="n">
-        <v>365.22</v>
+        <v>393.74</v>
       </c>
       <c r="E34" t="n">
-        <v>10.008</v>
+        <v>6.856</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>234.86</v>
+        <v>397.98</v>
       </c>
       <c r="D35" t="n">
-        <v>293.22</v>
+        <v>473.62</v>
       </c>
       <c r="E35" t="n">
-        <v>10.848</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36">
@@ -1112,74 +1112,74 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>532.22</v>
+        <v>473.62</v>
       </c>
       <c r="D36" t="n">
-        <v>605.02</v>
+        <v>542.5599999999999</v>
       </c>
       <c r="E36" t="n">
-        <v>26.36</v>
+        <v>26.776</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>365.22</v>
+        <v>199.22</v>
       </c>
       <c r="D37" t="n">
-        <v>449.12</v>
+        <v>251.32</v>
       </c>
       <c r="E37" t="n">
-        <v>4.728</v>
+        <v>14.408</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>149.24</v>
+        <v>330.48</v>
       </c>
       <c r="D38" t="n">
-        <v>193.52</v>
+        <v>419.28</v>
       </c>
       <c r="E38" t="n">
-        <v>16.228</v>
+        <v>6.812</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pond5</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>293.22</v>
+        <v>419.28</v>
       </c>
       <c r="D39" t="n">
-        <v>341.66</v>
+        <v>480.68</v>
       </c>
       <c r="E39" t="n">
-        <v>7.624</v>
+        <v>3.272</v>
       </c>
     </row>
     <row r="40">
@@ -1188,36 +1188,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>341.66</v>
+        <v>340.76</v>
       </c>
       <c r="D40" t="n">
-        <v>404.86</v>
+        <v>379.4</v>
       </c>
       <c r="E40" t="n">
-        <v>3.904</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>193.52</v>
+        <v>542.5599999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>265.58</v>
+        <v>605.76</v>
       </c>
       <c r="E41" t="n">
-        <v>11.132</v>
+        <v>23.056</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>265.58</v>
+        <v>393.74</v>
       </c>
       <c r="D42" t="n">
-        <v>313.7</v>
+        <v>446.86</v>
       </c>
       <c r="E42" t="n">
-        <v>7.94</v>
+        <v>3.664</v>
       </c>
     </row>
     <row r="43">
@@ -1245,112 +1245,112 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond49</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>605.02</v>
+        <v>605.76</v>
       </c>
       <c r="D43" t="n">
-        <v>672.16</v>
+        <v>662.4</v>
       </c>
       <c r="E43" t="n">
-        <v>22.776</v>
+        <v>20.032</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>404.86</v>
+        <v>251.32</v>
       </c>
       <c r="D44" t="n">
-        <v>471.86</v>
+        <v>333.72</v>
       </c>
       <c r="E44" t="n">
-        <v>0.784</v>
+        <v>10.748</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>471.86</v>
+        <v>333.72</v>
       </c>
       <c r="D45" t="n">
-        <v>542.1900000000001</v>
+        <v>415.96</v>
       </c>
       <c r="E45" t="n">
-        <v>30</v>
+        <v>6.604</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>401</v>
+        <v>480.68</v>
       </c>
       <c r="D46" t="n">
-        <v>478.9</v>
+        <v>541.14</v>
       </c>
       <c r="E46" t="n">
-        <v>2.74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>313.7</v>
+        <v>541.14</v>
       </c>
       <c r="D47" t="n">
-        <v>392.02</v>
+        <v>612.54</v>
       </c>
       <c r="E47" t="n">
-        <v>3.728</v>
+        <v>24.54</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>542.1900000000001</v>
+        <v>378.62</v>
       </c>
       <c r="D48" t="n">
-        <v>579.27</v>
+        <v>478.16</v>
       </c>
       <c r="E48" t="n">
-        <v>27.492</v>
+        <v>4.964</v>
       </c>
     </row>
     <row r="49">
@@ -1359,52 +1359,52 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>342.18</v>
+        <v>612.54</v>
       </c>
       <c r="D49" t="n">
-        <v>395.56</v>
+        <v>666.5599999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>3.724</v>
+        <v>21.768</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>395.56</v>
+        <v>379.4</v>
       </c>
       <c r="D50" t="n">
-        <v>445.06</v>
+        <v>428.88</v>
       </c>
       <c r="E50" t="n">
-        <v>1.404</v>
+        <v>1.652</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>445.06</v>
+        <v>428.88</v>
       </c>
       <c r="D51" t="n">
-        <v>553.55</v>
+        <v>497.58</v>
       </c>
       <c r="E51" t="n">
         <v>30</v>
@@ -1412,40 +1412,21 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>478.9</v>
+        <v>497.58</v>
       </c>
       <c r="D52" t="n">
-        <v>584.72</v>
+        <v>574.92</v>
       </c>
       <c r="E52" t="n">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>6</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>pond50</t>
-        </is>
-      </c>
-      <c r="C53" t="n">
-        <v>584.72</v>
-      </c>
-      <c r="D53" t="n">
-        <v>666.92</v>
-      </c>
-      <c r="E53" t="n">
-        <v>25.92</v>
+        <v>26.416</v>
       </c>
     </row>
   </sheetData>
